--- a/linear-programming/production_welding/production-welding-robot.xlsx
+++ b/linear-programming/production_welding/production-welding-robot.xlsx
@@ -8,47 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RobertH/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9A70DA-BC02-1D4E-A7E9-DB64154B5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B70124F-B5E7-FB43-B731-8BEF992B0183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="2600" windowWidth="27420" windowHeight="16560" activeTab="2" xr2:uid="{F761DC69-945B-844A-9138-363976A4D5F5}"/>
+    <workbookView xWindow="1300" yWindow="2600" windowWidth="27420" windowHeight="16560" activeTab="1" xr2:uid="{F761DC69-945B-844A-9138-363976A4D5F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="4" r:id="rId1"/>
-    <sheet name="Answer Report 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Answer Report 1" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet1!$B$6:$D$6</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet1!$F$11:$F$13</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet1!$B$3</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Sheet1!$H$11:$H$13</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$B$6:$D$6</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$F$11:$F$13</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$B$3</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$H$11:$H$13</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Objective</t>
   </si>
@@ -94,12 +93,6 @@
     <t>constraint 1</t>
   </si>
   <si>
-    <t>Microsoft Excel 16.62 Answer Report</t>
-  </si>
-  <si>
-    <t>Worksheet: [Book2]Sheet1</t>
-  </si>
-  <si>
     <t>Result: Solver found a solution.  All constraints and optimality conditions are satisfied.</t>
   </si>
   <si>
@@ -163,18 +156,9 @@
     <t>Not Binding</t>
   </si>
   <si>
-    <t>Iterations: 3 Subproblems: 0</t>
-  </si>
-  <si>
     <t>constraint 3</t>
   </si>
   <si>
-    <t>Report Created: 7/1/22 11:43:17 PM</t>
-  </si>
-  <si>
-    <t>Solution Time: 2021.326 Seconds.</t>
-  </si>
-  <si>
     <t>$B$3</t>
   </si>
   <si>
@@ -184,33 +168,6 @@
     <t>$C$6</t>
   </si>
   <si>
-    <t>$E$11</t>
-  </si>
-  <si>
-    <t>constraint 1 Resources Used</t>
-  </si>
-  <si>
-    <t>$E$11&lt;=$G$11</t>
-  </si>
-  <si>
-    <t>$E$12</t>
-  </si>
-  <si>
-    <t>constraint 2 Resources Used</t>
-  </si>
-  <si>
-    <t>$E$12&lt;=$G$12</t>
-  </si>
-  <si>
-    <t>$E$13</t>
-  </si>
-  <si>
-    <t>constraint 3 Resources Used</t>
-  </si>
-  <si>
-    <t>$E$13&lt;=$G$13</t>
-  </si>
-  <si>
     <t>x3</t>
   </si>
   <si>
@@ -220,15 +177,6 @@
     <t>Microsoft Excel 16.77 Answer Report</t>
   </si>
   <si>
-    <t>Worksheet: [toymaker (2).xlsx]Sheet1</t>
-  </si>
-  <si>
-    <t>Report Created: 1/20/25 1:14:58 PM</t>
-  </si>
-  <si>
-    <t>Solution Time: 2473.019 Seconds.</t>
-  </si>
-  <si>
     <t>Iterations: 2 Subproblems: 0</t>
   </si>
   <si>
@@ -260,6 +208,15 @@
   </si>
   <si>
     <t>$F$13&lt;=$H$13</t>
+  </si>
+  <si>
+    <t>Worksheet: [production-welding-robot.xlsx]Sheet1</t>
+  </si>
+  <si>
+    <t>Report Created: 1/20/25 1:27:45 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 2437.722 Seconds.</t>
   </si>
 </sst>
 </file>
@@ -533,14 +490,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,261 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379E965-CDD8-0C4C-8D9D-4CEDBC8C10EE}">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>544</v>
-      </c>
-      <c r="E16" s="2">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>16</v>
-      </c>
-      <c r="E21" s="4">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>72</v>
-      </c>
-      <c r="E22" s="2">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4">
-        <v>120</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4">
-        <v>160</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="2">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="2">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB15387-0765-B044-A147-2CAB652E608A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC29EF-FB17-4041-AFD8-E4FAEE7260CC}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1184,250 +882,250 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="D15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="22">
+        <v>172</v>
+      </c>
+      <c r="E16" s="22">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="F20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="23">
+        <v>2</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="E22" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="22">
         <v>0</v>
       </c>
-      <c r="E21" s="26">
-        <v>2</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="E23" s="22">
         <v>0</v>
       </c>
-      <c r="E22" s="26">
-        <v>8.5</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>28</v>
+      <c r="F23" s="19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="F27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="G27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="23" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="23">
+        <v>21</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="26">
-        <v>21</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="24">
+      <c r="G28" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="26">
+      <c r="B29" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="23">
         <v>23</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="24">
+      <c r="E29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="B30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="22">
         <v>10.5</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="22">
+      <c r="E30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="19">
         <v>6.5</v>
       </c>
     </row>
@@ -1436,12 +1134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FC2C83-2FF7-4A47-A63B-E213E5A87FEE}">
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,175 +1150,175 @@
   <sheetData>
     <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
-        <f>SUMPRODUCT(B6:C6,B8:C8)</f>
+      <c r="B3" s="3">
+        <f>SUMPRODUCT(B6:D6,B8:D8)</f>
         <v>172</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>8.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>18</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>16</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <f>SUMPRODUCT($B$6:$D$6,B11:D11)</f>
         <v>21</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>3</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <f t="shared" ref="F12:F13" si="0">SUMPRODUCT($B$6:$D$6,B12:D12)</f>
         <v>23</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>17</v>
       </c>
     </row>

--- a/linear-programming/production_welding/production-welding-robot.xlsx
+++ b/linear-programming/production_welding/production-welding-robot.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RobertH/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B70124F-B5E7-FB43-B731-8BEF992B0183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE3395A-390D-4E43-872E-5E645D7A3BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="2600" windowWidth="27420" windowHeight="16560" activeTab="1" xr2:uid="{F761DC69-945B-844A-9138-363976A4D5F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="6" r:id="rId1"/>
+    <sheet name="Answer Report 1" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -47,7 +47,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -210,13 +210,13 @@
     <t>$F$13&lt;=$H$13</t>
   </si>
   <si>
-    <t>Worksheet: [production-welding-robot.xlsx]Sheet1</t>
-  </si>
-  <si>
-    <t>Report Created: 1/20/25 1:27:45 PM</t>
-  </si>
-  <si>
-    <t>Solution Time: 2437.722 Seconds.</t>
+    <t>Worksheet: [production-welding-robot (2).xlsx]Sheet1</t>
+  </si>
+  <si>
+    <t>Report Created: 1/20/25 1:49:12 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 2489.191 Seconds.</t>
   </si>
 </sst>
 </file>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC29EF-FB17-4041-AFD8-E4FAEE7260CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11277828-B408-6B44-8F0F-DC2100B96C27}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="22">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E16" s="22">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1001,10 +1001,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>26</v>
@@ -1018,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="23">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="E22" s="23">
-        <v>8.5</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>26</v>
@@ -1077,16 +1077,16 @@
         <v>39</v>
       </c>
       <c r="D28" s="23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,16 +1117,16 @@
         <v>45</v>
       </c>
       <c r="D30" s="22">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="19">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1139,7 @@
   <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B3" s="3">
         <f>SUMPRODUCT(B6:D6,B8:D8)</f>
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1192,10 +1192,10 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>8.5</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F11" s="2">
         <f>SUMPRODUCT($B$6:$D$6,B11:D11)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>5</v>
@@ -1306,14 +1306,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
